--- a/QUIERE USTED CASARSE.xlsx
+++ b/QUIERE USTED CASARSE.xlsx
@@ -1896,11 +1896,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1918,111 +1919,22 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u val="single"/>
       <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
+      <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFCCFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFFFCCCC"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -2030,23 +1942,8 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="37">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2070,26 +1967,13 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2098,91 +1982,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="23">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Título" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -2193,8 +2000,8 @@
   </sheetPr>
   <dimension ref="A1:A451"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A446" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B454" activeCellId="0" sqref="B454"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I3" activeCellId="0" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2203,57 +2010,57 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>263</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="55.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+    <row r="5" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+    <row r="7" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+    <row r="8" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
+    <row r="9" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2267,8 +2074,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+    <row r="14" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2277,8 +2084,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="19.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2287,8 +2094,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
+    <row r="18" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2297,8 +2104,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+    <row r="20" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2307,38 +2114,38 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="22" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="23" customFormat="false" ht="852.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="28" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2347,18 +2154,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
+    <row r="30" customFormat="false" ht="561.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
+    <row r="31" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
+    <row r="32" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2372,53 +2179,53 @@
         <v>264</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
+    <row r="35" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
+    <row r="36" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
+    <row r="37" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
+    <row r="38" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
+    <row r="39" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
+    <row r="40" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
+    <row r="41" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
+    <row r="42" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
+    <row r="43" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="44" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2427,13 +2234,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="46" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="47" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2442,13 +2249,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="49" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="50" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2457,28 +2264,28 @@
         <v>48</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
+    <row r="52" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="1" t="s">
+    <row r="53" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="1" t="s">
+    <row r="54" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="1" t="s">
+    <row r="55" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="1" t="s">
+    <row r="56" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2492,13 +2299,13 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="1" t="s">
+    <row r="59" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="1" t="s">
+    <row r="60" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2507,8 +2314,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="1" t="s">
+    <row r="62" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="2" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2517,13 +2324,13 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="1" t="s">
+    <row r="64" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
+    <row r="65" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="2" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2532,13 +2339,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="1" t="s">
+    <row r="67" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="1" t="s">
+    <row r="68" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="2" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2547,8 +2354,8 @@
         <v>265</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
+    <row r="70" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2587,8 +2394,8 @@
         <v>73</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="s">
+    <row r="78" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="2" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2597,8 +2404,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="s">
+    <row r="80" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="2" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2617,8 +2424,8 @@
         <v>79</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="s">
+    <row r="84" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="2" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2637,68 +2444,68 @@
         <v>83</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+    <row r="88" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+    <row r="89" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="s">
+    <row r="90" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+    <row r="91" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+    <row r="92" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="1" t="s">
+    <row r="93" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+    <row r="94" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+    <row r="95" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+    <row r="96" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+    <row r="97" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+    <row r="98" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+    <row r="99" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+    <row r="100" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2712,8 +2519,8 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="103" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2727,8 +2534,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+    <row r="106" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2742,8 +2549,8 @@
         <v>103</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+    <row r="109" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2752,8 +2559,8 @@
         <v>105</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="1" t="s">
+    <row r="111" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
         <v>106</v>
       </c>
     </row>
@@ -2812,13 +2619,13 @@
         <v>117</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="1" t="s">
+    <row r="123" customFormat="false" ht="494" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="1" t="s">
+    <row r="124" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2827,18 +2634,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
+    <row r="126" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
+    <row r="127" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
+    <row r="128" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2857,13 +2664,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="1" t="s">
+    <row r="132" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="1" t="s">
+    <row r="133" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2877,13 +2684,13 @@
         <v>129</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="1" t="s">
+    <row r="136" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="1" t="s">
+    <row r="137" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2892,8 +2699,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="1" t="s">
+    <row r="139" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
         <v>133</v>
       </c>
     </row>
@@ -2902,18 +2709,18 @@
         <v>134</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="1" t="s">
+    <row r="141" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="1" t="s">
+    <row r="142" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="s">
+    <row r="143" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2922,13 +2729,13 @@
         <v>138</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="s">
+    <row r="145" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="s">
+    <row r="146" customFormat="false" ht="617.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2937,18 +2744,18 @@
         <v>141</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="s">
+    <row r="148" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="s">
+    <row r="149" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="s">
+    <row r="150" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2962,13 +2769,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="s">
+    <row r="153" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="s">
+    <row r="154" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2982,18 +2789,18 @@
         <v>150</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="s">
+    <row r="157" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="s">
+    <row r="158" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="s">
+    <row r="159" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3007,13 +2814,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="s">
+    <row r="162" customFormat="false" ht="1233.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="s">
+    <row r="163" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
         <v>156</v>
       </c>
     </row>
@@ -3022,18 +2829,18 @@
         <v>157</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="s">
+    <row r="165" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="s">
+    <row r="166" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="s">
+    <row r="167" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3042,13 +2849,13 @@
         <v>161</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="s">
+    <row r="169" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="s">
+    <row r="170" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3087,8 +2894,8 @@
         <v>170</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="s">
+    <row r="178" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
         <v>171</v>
       </c>
     </row>
@@ -3107,23 +2914,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="s">
+    <row r="182" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="s">
+    <row r="183" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="s">
+    <row r="184" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="s">
+    <row r="185" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3152,18 +2959,18 @@
         <v>269</v>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="s">
+    <row r="191" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="s">
+    <row r="192" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="s">
+    <row r="193" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3172,8 +2979,8 @@
         <v>186</v>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="s">
+    <row r="195" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3192,8 +2999,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="1" t="s">
+    <row r="199" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3202,13 +3009,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="1" t="s">
+    <row r="201" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="1" t="s">
+    <row r="202" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="2" t="s">
         <v>194</v>
       </c>
     </row>
@@ -3222,8 +3029,8 @@
         <v>196</v>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="1" t="s">
+    <row r="205" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3232,38 +3039,38 @@
         <v>198</v>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="1" t="s">
+    <row r="207" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="1" t="s">
+    <row r="208" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="2" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="1" t="s">
+    <row r="209" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="2" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="1" t="s">
+    <row r="210" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="2" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="1" t="s">
+    <row r="211" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="2" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="1" t="s">
+    <row r="212" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="1" t="s">
+    <row r="213" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="2" t="s">
         <v>205</v>
       </c>
     </row>
@@ -3277,8 +3084,8 @@
         <v>207</v>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="1" t="s">
+    <row r="216" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="2" t="s">
         <v>208</v>
       </c>
     </row>
@@ -3287,8 +3094,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="1" t="s">
+    <row r="218" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="2" t="s">
         <v>210</v>
       </c>
     </row>
@@ -3297,13 +3104,13 @@
         <v>270</v>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="1" t="s">
+    <row r="220" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="2" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="1" t="s">
+    <row r="221" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="2" t="s">
         <v>212</v>
       </c>
     </row>
@@ -3312,8 +3119,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="1" t="s">
+    <row r="223" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="2" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3322,8 +3129,8 @@
         <v>215</v>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="1" t="s">
+    <row r="225" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="2" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3332,8 +3139,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="102.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="1" t="s">
+    <row r="227" customFormat="false" ht="393.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="2" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3342,18 +3149,18 @@
         <v>219</v>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="1" t="s">
+    <row r="229" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="2" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="1" t="s">
+    <row r="230" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="2" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="1" t="s">
+    <row r="231" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="2" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3362,8 +3169,8 @@
         <v>223</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="1" t="s">
+    <row r="233" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="2" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3372,38 +3179,38 @@
         <v>225</v>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="1" t="s">
+    <row r="235" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="2" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="1" t="s">
+    <row r="236" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="2" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="1" t="s">
+    <row r="237" customFormat="false" ht="426.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="2" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="1" t="s">
+    <row r="238" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="2" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="1" t="s">
+    <row r="239" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="2" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="1" t="s">
+    <row r="240" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="2" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="1" t="s">
+    <row r="241" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="2" t="s">
         <v>232</v>
       </c>
     </row>
@@ -3417,18 +3224,18 @@
         <v>271</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="1" t="s">
+    <row r="244" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="2" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="1" t="s">
+    <row r="245" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="2" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="1" t="s">
+    <row r="246" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="2" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3437,18 +3244,18 @@
         <v>237</v>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="1" t="s">
+    <row r="248" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="2" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="1" t="s">
+    <row r="249" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="2" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="1" t="s">
+    <row r="250" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="2" t="s">
         <v>240</v>
       </c>
     </row>
@@ -3457,8 +3264,8 @@
         <v>241</v>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="1" t="s">
+    <row r="252" customFormat="false" ht="449.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="2" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3467,58 +3274,58 @@
         <v>243</v>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="1" t="s">
+    <row r="254" customFormat="false" ht="348.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="2" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="1" t="s">
+    <row r="255" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="2" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="1" t="s">
+    <row r="256" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="2" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="1" t="s">
+    <row r="257" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="2" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="1" t="s">
+    <row r="258" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="2" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="1" t="s">
+    <row r="259" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="1" t="s">
+    <row r="260" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="2" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="1" t="s">
+    <row r="261" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="2" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="1" t="s">
+    <row r="262" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="2" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="1" t="s">
+    <row r="263" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="2" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="1" t="s">
+    <row r="264" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="2" t="s">
         <v>254</v>
       </c>
     </row>
@@ -3527,13 +3334,13 @@
         <v>272</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="1" t="s">
+    <row r="266" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="2" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="1" t="s">
+    <row r="267" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="2" t="s">
         <v>256</v>
       </c>
     </row>
@@ -3542,13 +3349,13 @@
         <v>257</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="1" t="s">
+    <row r="269" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="2" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="1" t="s">
+    <row r="270" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A270" s="2" t="s">
         <v>259</v>
       </c>
     </row>
@@ -3572,8 +3379,8 @@
         <v>263</v>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A275" s="1" t="s">
+    <row r="275" customFormat="false" ht="370.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="2" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3622,8 +3429,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A285" s="1" t="s">
+    <row r="285" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A285" s="2" t="s">
         <v>274</v>
       </c>
     </row>
@@ -3632,13 +3439,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A287" s="1" t="s">
+    <row r="287" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A287" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A288" s="1" t="s">
+    <row r="288" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A288" s="2" t="s">
         <v>277</v>
       </c>
     </row>
@@ -3647,28 +3454,28 @@
         <v>278</v>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A290" s="1" t="s">
+    <row r="290" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A290" s="2" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A291" s="1" t="s">
+    <row r="291" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A291" s="2" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A292" s="1" t="s">
+    <row r="292" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A292" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A293" s="1" t="s">
+    <row r="293" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A293" s="2" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A294" s="1" t="s">
+    <row r="294" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A294" s="2" t="s">
         <v>283</v>
       </c>
     </row>
@@ -3682,8 +3489,8 @@
         <v>273</v>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A297" s="1" t="s">
+    <row r="297" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A297" s="2" t="s">
         <v>285</v>
       </c>
     </row>
@@ -3697,13 +3504,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A300" s="1" t="s">
+    <row r="300" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A300" s="2" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A301" s="1" t="s">
+    <row r="301" customFormat="false" ht="684.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A301" s="2" t="s">
         <v>289</v>
       </c>
     </row>
@@ -3727,18 +3534,18 @@
         <v>293</v>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A306" s="1" t="s">
+    <row r="306" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A306" s="2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A307" s="1" t="s">
+    <row r="307" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A307" s="2" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A308" s="1" t="s">
+    <row r="308" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A308" s="2" t="s">
         <v>296</v>
       </c>
     </row>
@@ -3747,8 +3554,8 @@
         <v>297</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A310" s="1" t="s">
+    <row r="310" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A310" s="2" t="s">
         <v>298</v>
       </c>
     </row>
@@ -3762,18 +3569,18 @@
         <v>300</v>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A313" s="1" t="s">
+    <row r="313" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A313" s="2" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A314" s="1" t="s">
+    <row r="314" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A314" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A315" s="1" t="s">
+    <row r="315" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A315" s="2" t="s">
         <v>303</v>
       </c>
     </row>
@@ -3782,8 +3589,8 @@
         <v>304</v>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A317" s="1" t="s">
+    <row r="317" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A317" s="2" t="s">
         <v>305</v>
       </c>
     </row>
@@ -3827,8 +3634,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="326" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A326" s="1" t="s">
+    <row r="326" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A326" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3837,43 +3644,43 @@
         <v>313</v>
       </c>
     </row>
-    <row r="328" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A328" s="1" t="s">
+    <row r="328" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A328" s="2" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="329" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A329" s="1" t="s">
+    <row r="329" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A329" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="330" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A330" s="1" t="s">
+    <row r="330" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A330" s="2" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="331" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A331" s="1" t="s">
+    <row r="331" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A331" s="2" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="332" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A332" s="1" t="s">
+    <row r="332" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A332" s="2" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="333" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A333" s="1" t="s">
+    <row r="333" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A333" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="334" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A334" s="1" t="s">
+    <row r="334" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A334" s="2" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="335" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A335" s="1" t="s">
+    <row r="335" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A335" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3882,13 +3689,13 @@
         <v>322</v>
       </c>
     </row>
-    <row r="337" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A337" s="1" t="s">
+    <row r="337" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A337" s="2" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="338" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A338" s="1" t="s">
+    <row r="338" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A338" s="2" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3897,38 +3704,38 @@
         <v>325</v>
       </c>
     </row>
-    <row r="340" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A340" s="1" t="s">
+    <row r="340" customFormat="false" ht="415.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A340" s="2" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="341" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A341" s="1" t="s">
+    <row r="341" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A341" s="2" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="342" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A342" s="1" t="s">
+    <row r="342" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A342" s="2" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="343" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A343" s="1" t="s">
+    <row r="343" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A343" s="2" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="344" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A344" s="1" t="s">
+    <row r="344" customFormat="false" ht="438.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A344" s="2" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="345" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A345" s="1" t="s">
+    <row r="345" customFormat="false" ht="225.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A345" s="2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="346" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A346" s="1" t="s">
+    <row r="346" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A346" s="2" t="s">
         <v>332</v>
       </c>
     </row>
@@ -3937,13 +3744,13 @@
         <v>333</v>
       </c>
     </row>
-    <row r="348" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A348" s="1" t="s">
+    <row r="348" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A348" s="2" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="349" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A349" s="1" t="s">
+    <row r="349" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A349" s="2" t="s">
         <v>335</v>
       </c>
     </row>
@@ -3957,13 +3764,13 @@
         <v>337</v>
       </c>
     </row>
-    <row r="352" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A352" s="1" t="s">
+    <row r="352" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A352" s="2" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="353" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A353" s="1" t="s">
+    <row r="353" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A353" s="2" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3977,13 +3784,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="356" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A356" s="1" t="s">
+    <row r="356" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A356" s="2" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="357" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A357" s="1" t="s">
+    <row r="357" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A357" s="2" t="s">
         <v>343</v>
       </c>
     </row>
@@ -3992,13 +3799,13 @@
         <v>275</v>
       </c>
     </row>
-    <row r="359" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A359" s="1" t="s">
+    <row r="359" customFormat="false" ht="337.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A359" s="2" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="360" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A360" s="1" t="s">
+    <row r="360" customFormat="false" ht="359.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A360" s="2" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4007,13 +3814,13 @@
         <v>346</v>
       </c>
     </row>
-    <row r="362" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A362" s="1" t="s">
+    <row r="362" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A362" s="2" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="363" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A363" s="1" t="s">
+    <row r="363" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A363" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4027,28 +3834,28 @@
         <v>350</v>
       </c>
     </row>
-    <row r="366" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A366" s="1" t="s">
+    <row r="366" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A366" s="2" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="367" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A367" s="1" t="s">
+    <row r="367" customFormat="false" ht="460.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A367" s="2" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="368" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A368" s="1" t="s">
+    <row r="368" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A368" s="2" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="369" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A369" s="1" t="s">
+    <row r="369" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A369" s="2" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="370" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A370" s="1" t="s">
+    <row r="370" customFormat="false" ht="236.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A370" s="2" t="s">
         <v>355</v>
       </c>
     </row>
@@ -4057,13 +3864,13 @@
         <v>356</v>
       </c>
     </row>
-    <row r="372" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A372" s="1" t="s">
+    <row r="372" customFormat="false" ht="505.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A372" s="2" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="373" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A373" s="1" t="s">
+    <row r="373" customFormat="false" ht="247.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A373" s="2" t="s">
         <v>358</v>
       </c>
     </row>
@@ -4072,28 +3879,28 @@
         <v>359</v>
       </c>
     </row>
-    <row r="375" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A375" s="1" t="s">
+    <row r="375" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A375" s="2" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="376" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A376" s="1" t="s">
+    <row r="376" customFormat="false" ht="258.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A376" s="2" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="377" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A377" s="1" t="s">
+    <row r="377" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A377" s="2" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="378" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A378" s="1" t="s">
+    <row r="378" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A378" s="2" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="379" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A379" s="1" t="s">
+    <row r="379" customFormat="false" ht="583.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A379" s="2" t="s">
         <v>364</v>
       </c>
     </row>
@@ -4102,13 +3909,13 @@
         <v>365</v>
       </c>
     </row>
-    <row r="381" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A381" s="1" t="s">
+    <row r="381" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A381" s="2" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="382" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A382" s="1" t="s">
+    <row r="382" customFormat="false" ht="314.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A382" s="2" t="s">
         <v>367</v>
       </c>
     </row>
@@ -4127,28 +3934,28 @@
         <v>370</v>
       </c>
     </row>
-    <row r="386" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A386" s="1" t="s">
+    <row r="386" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A386" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="387" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A387" s="1" t="s">
+    <row r="387" customFormat="false" ht="158.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A387" s="2" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="388" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A388" s="1" t="s">
+    <row r="388" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A388" s="2" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="389" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A389" s="1" t="s">
+    <row r="389" customFormat="false" ht="303.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A389" s="2" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="390" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A390" s="1" t="s">
+    <row r="390" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A390" s="2" t="s">
         <v>375</v>
       </c>
     </row>
@@ -4157,8 +3964,8 @@
         <v>276</v>
       </c>
     </row>
-    <row r="392" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A392" s="1" t="s">
+    <row r="392" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A392" s="2" t="s">
         <v>376</v>
       </c>
     </row>
@@ -4167,8 +3974,8 @@
         <v>377</v>
       </c>
     </row>
-    <row r="394" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A394" s="1" t="s">
+    <row r="394" customFormat="false" ht="516.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A394" s="2" t="s">
         <v>378</v>
       </c>
     </row>
@@ -4182,13 +3989,13 @@
         <v>380</v>
       </c>
     </row>
-    <row r="397" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A397" s="1" t="s">
+    <row r="397" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A397" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="398" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A398" s="1" t="s">
+    <row r="398" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A398" s="2" t="s">
         <v>382</v>
       </c>
     </row>
@@ -4217,8 +4024,8 @@
         <v>387</v>
       </c>
     </row>
-    <row r="404" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A404" s="1" t="s">
+    <row r="404" customFormat="false" ht="270.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A404" s="2" t="s">
         <v>388</v>
       </c>
     </row>
@@ -4232,8 +4039,8 @@
         <v>390</v>
       </c>
     </row>
-    <row r="407" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A407" s="1" t="s">
+    <row r="407" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A407" s="2" t="s">
         <v>391</v>
       </c>
     </row>
@@ -4262,18 +4069,18 @@
         <v>396</v>
       </c>
     </row>
-    <row r="413" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A413" s="1" t="s">
+    <row r="413" customFormat="false" ht="292.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A413" s="2" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="414" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A414" s="1" t="s">
+    <row r="414" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A414" s="2" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="415" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A415" s="1" t="s">
+    <row r="415" customFormat="false" ht="572.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A415" s="2" t="s">
         <v>399</v>
       </c>
     </row>
@@ -4297,13 +4104,13 @@
         <v>403</v>
       </c>
     </row>
-    <row r="420" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A420" s="1" t="s">
+    <row r="420" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A420" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="421" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A421" s="1" t="s">
+    <row r="421" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A421" s="2" t="s">
         <v>405</v>
       </c>
     </row>
@@ -4317,8 +4124,8 @@
         <v>407</v>
       </c>
     </row>
-    <row r="424" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A424" s="1" t="s">
+    <row r="424" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A424" s="2" t="s">
         <v>408</v>
       </c>
     </row>
@@ -4332,18 +4139,18 @@
         <v>277</v>
       </c>
     </row>
-    <row r="427" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A427" s="1" t="s">
+    <row r="427" customFormat="false" ht="527.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A427" s="2" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="428" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A428" s="1" t="s">
+    <row r="428" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A428" s="2" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="429" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A429" s="1" t="s">
+    <row r="429" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A429" s="2" t="s">
         <v>412</v>
       </c>
     </row>
@@ -4352,23 +4159,23 @@
         <v>413</v>
       </c>
     </row>
-    <row r="431" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A431" s="1" t="s">
+    <row r="431" customFormat="false" ht="180.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A431" s="2" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="432" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A432" s="1" t="s">
+    <row r="432" customFormat="false" ht="147" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A432" s="2" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="433" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A433" s="1" t="s">
+    <row r="433" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A433" s="2" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="434" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A434" s="1" t="s">
+    <row r="434" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A434" s="2" t="s">
         <v>417</v>
       </c>
     </row>
@@ -4377,43 +4184,43 @@
         <v>418</v>
       </c>
     </row>
-    <row r="436" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A436" s="1" t="s">
+    <row r="436" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A436" s="2" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="437" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A437" s="1" t="s">
+    <row r="437" customFormat="false" ht="202.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A437" s="2" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="438" customFormat="false" ht="80.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A438" s="1" t="s">
+    <row r="438" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A438" s="2" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="439" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A439" s="1" t="s">
+    <row r="439" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A439" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="440" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A440" s="1" t="s">
+    <row r="440" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A440" s="2" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="441" customFormat="false" ht="57.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A441" s="1" t="s">
+    <row r="441" customFormat="false" ht="214.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A441" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="442" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A442" s="1" t="s">
+    <row r="442" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A442" s="2" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="443" customFormat="false" ht="91.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A443" s="1" t="s">
+    <row r="443" customFormat="false" ht="326.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A443" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -4422,33 +4229,33 @@
         <v>427</v>
       </c>
     </row>
-    <row r="445" customFormat="false" ht="69" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A445" s="1" t="s">
+    <row r="445" customFormat="false" ht="382.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A445" s="2" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="446" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A446" s="1" t="s">
+    <row r="446" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A446" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="447" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A447" s="1" t="s">
+    <row r="447" customFormat="false" ht="124.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A447" s="2" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="448" customFormat="false" ht="46.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A448" s="1" t="s">
+    <row r="448" customFormat="false" ht="191.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A448" s="2" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="449" customFormat="false" ht="147.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A449" s="1" t="s">
+    <row r="449" customFormat="false" ht="661.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A449" s="2" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="450" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A450" s="1" t="s">
+    <row r="450" customFormat="false" ht="169.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A450" s="2" t="s">
         <v>433</v>
       </c>
     </row>
